--- a/Data_file/import_product_sobu2.xlsx
+++ b/Data_file/import_product_sobu2.xlsx
@@ -1678,7 +1678,9 @@
         <v>1</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="N2" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O2" t="b" s="4">
         <v>1</v>
       </c>
@@ -1718,7 +1720,9 @@
         <v>1</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="N3" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O3" t="b" s="4">
         <v>1</v>
       </c>
@@ -1758,7 +1762,9 @@
         <v>1</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="N4" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O4" t="b" s="4">
         <v>1</v>
       </c>
@@ -1798,7 +1804,9 @@
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="N5" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O5" t="b" s="4">
         <v>1</v>
       </c>
@@ -1838,7 +1846,9 @@
         <v>1</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="N6" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O6" t="b" s="4">
         <v>1</v>
       </c>
@@ -1878,7 +1888,9 @@
         <v>1</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="N7" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O7" t="b" s="4">
         <v>1</v>
       </c>
@@ -1918,7 +1930,9 @@
         <v>1</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="N8" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O8" t="b" s="4">
         <v>1</v>
       </c>
@@ -1958,7 +1972,9 @@
         <v>1</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="N9" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O9" t="b" s="4">
         <v>1</v>
       </c>
@@ -1998,7 +2014,9 @@
         <v>1</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="N10" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O10" t="b" s="4">
         <v>1</v>
       </c>
@@ -2038,7 +2056,9 @@
         <v>1</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="N11" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O11" t="b" s="4">
         <v>1</v>
       </c>
@@ -2078,7 +2098,9 @@
         <v>1</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="N12" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O12" t="b" s="4">
         <v>1</v>
       </c>
@@ -2118,7 +2140,9 @@
         <v>1</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="N13" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O13" t="b" s="4">
         <v>1</v>
       </c>
@@ -2158,7 +2182,9 @@
         <v>1</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="N14" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O14" t="b" s="4">
         <v>1</v>
       </c>
@@ -2198,7 +2224,9 @@
         <v>1</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="N15" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O15" t="b" s="4">
         <v>1</v>
       </c>
@@ -2238,7 +2266,9 @@
         <v>1</v>
       </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="N16" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O16" t="b" s="4">
         <v>1</v>
       </c>
@@ -2278,7 +2308,9 @@
         <v>1</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O17" t="b" s="4">
         <v>1</v>
       </c>
@@ -2318,7 +2350,9 @@
         <v>1</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="N18" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O18" t="b" s="4">
         <v>1</v>
       </c>
@@ -2358,7 +2392,9 @@
         <v>1</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O19" t="b" s="4">
         <v>1</v>
       </c>
@@ -2398,7 +2434,9 @@
         <v>1</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="N20" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O20" t="b" s="4">
         <v>1</v>
       </c>
@@ -2438,7 +2476,9 @@
         <v>1</v>
       </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="N21" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O21" t="b" s="4">
         <v>1</v>
       </c>
@@ -2478,7 +2518,9 @@
         <v>1</v>
       </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="N22" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O22" t="b" s="4">
         <v>1</v>
       </c>
@@ -2518,7 +2560,9 @@
         <v>1</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="N23" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O23" t="b" s="4">
         <v>1</v>
       </c>
@@ -2558,7 +2602,9 @@
         <v>1</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="N24" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O24" t="b" s="4">
         <v>1</v>
       </c>
@@ -2598,7 +2644,9 @@
         <v>1</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="N25" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O25" t="b" s="4">
         <v>1</v>
       </c>
@@ -2638,7 +2686,9 @@
         <v>1</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="N26" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O26" t="b" s="4">
         <v>1</v>
       </c>
@@ -2678,7 +2728,9 @@
         <v>1</v>
       </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="N27" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O27" t="b" s="4">
         <v>1</v>
       </c>
@@ -2718,7 +2770,9 @@
         <v>1</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="N28" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O28" t="b" s="4">
         <v>1</v>
       </c>
@@ -2758,7 +2812,9 @@
         <v>1</v>
       </c>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="N29" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O29" t="b" s="4">
         <v>1</v>
       </c>
@@ -2798,7 +2854,9 @@
         <v>1</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="N30" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O30" t="b" s="4">
         <v>1</v>
       </c>
@@ -2838,7 +2896,9 @@
         <v>1</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="N31" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O31" t="b" s="4">
         <v>1</v>
       </c>
@@ -2878,7 +2938,9 @@
         <v>1</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="N32" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O32" t="b" s="4">
         <v>1</v>
       </c>
@@ -2918,7 +2980,9 @@
         <v>1</v>
       </c>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="N33" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O33" t="b" s="4">
         <v>1</v>
       </c>
@@ -2958,7 +3022,9 @@
         <v>1</v>
       </c>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="N34" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O34" t="b" s="4">
         <v>1</v>
       </c>
@@ -2998,7 +3064,9 @@
         <v>1</v>
       </c>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="N35" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O35" t="b" s="4">
         <v>1</v>
       </c>
@@ -3038,7 +3106,9 @@
         <v>1</v>
       </c>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="N36" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O36" t="b" s="4">
         <v>1</v>
       </c>
@@ -3078,7 +3148,9 @@
         <v>1</v>
       </c>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="N37" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O37" t="b" s="4">
         <v>1</v>
       </c>
@@ -3118,7 +3190,9 @@
         <v>1</v>
       </c>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="N38" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O38" t="b" s="4">
         <v>1</v>
       </c>
@@ -3158,7 +3232,9 @@
         <v>1</v>
       </c>
       <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="N39" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O39" t="b" s="4">
         <v>1</v>
       </c>
@@ -3198,7 +3274,9 @@
         <v>1</v>
       </c>
       <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="N40" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O40" t="b" s="4">
         <v>1</v>
       </c>
@@ -3238,7 +3316,9 @@
         <v>1</v>
       </c>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="N41" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O41" t="b" s="4">
         <v>1</v>
       </c>
@@ -3278,7 +3358,9 @@
         <v>1</v>
       </c>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="N42" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O42" t="b" s="4">
         <v>1</v>
       </c>
@@ -3318,7 +3400,9 @@
         <v>1</v>
       </c>
       <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="N43" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O43" t="b" s="4">
         <v>1</v>
       </c>
@@ -3358,7 +3442,9 @@
         <v>1</v>
       </c>
       <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="N44" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O44" t="b" s="4">
         <v>1</v>
       </c>
@@ -3398,7 +3484,9 @@
         <v>1</v>
       </c>
       <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="N45" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O45" t="b" s="4">
         <v>1</v>
       </c>
@@ -3438,7 +3526,9 @@
         <v>1</v>
       </c>
       <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="N46" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O46" t="b" s="4">
         <v>1</v>
       </c>
@@ -3478,7 +3568,9 @@
         <v>1</v>
       </c>
       <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="N47" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O47" t="b" s="4">
         <v>1</v>
       </c>
@@ -3518,7 +3610,9 @@
         <v>1</v>
       </c>
       <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
+      <c r="N48" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O48" t="b" s="4">
         <v>1</v>
       </c>
@@ -3558,7 +3652,9 @@
         <v>1</v>
       </c>
       <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
+      <c r="N49" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O49" t="b" s="4">
         <v>1</v>
       </c>
@@ -3598,7 +3694,9 @@
         <v>1</v>
       </c>
       <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="N50" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O50" t="b" s="4">
         <v>1</v>
       </c>
@@ -3638,7 +3736,9 @@
         <v>1</v>
       </c>
       <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="N51" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O51" t="b" s="4">
         <v>1</v>
       </c>
@@ -3678,7 +3778,9 @@
         <v>1</v>
       </c>
       <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="N52" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O52" t="b" s="4">
         <v>1</v>
       </c>
@@ -3718,7 +3820,9 @@
         <v>1</v>
       </c>
       <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+      <c r="N53" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O53" t="b" s="4">
         <v>1</v>
       </c>
@@ -3758,7 +3862,9 @@
         <v>1</v>
       </c>
       <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+      <c r="N54" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O54" t="b" s="4">
         <v>1</v>
       </c>
@@ -3798,7 +3904,9 @@
         <v>1</v>
       </c>
       <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="N55" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O55" t="b" s="4">
         <v>1</v>
       </c>
@@ -3838,7 +3946,9 @@
         <v>1</v>
       </c>
       <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+      <c r="N56" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O56" t="b" s="4">
         <v>1</v>
       </c>
@@ -3878,7 +3988,9 @@
         <v>1</v>
       </c>
       <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="N57" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O57" t="b" s="4">
         <v>1</v>
       </c>
@@ -3918,7 +4030,9 @@
         <v>1</v>
       </c>
       <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+      <c r="N58" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O58" t="b" s="4">
         <v>1</v>
       </c>
@@ -3958,7 +4072,9 @@
         <v>1</v>
       </c>
       <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
+      <c r="N59" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O59" t="b" s="4">
         <v>1</v>
       </c>
@@ -3998,7 +4114,9 @@
         <v>1</v>
       </c>
       <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
+      <c r="N60" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O60" t="b" s="4">
         <v>1</v>
       </c>
@@ -4038,7 +4156,9 @@
         <v>1</v>
       </c>
       <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="N61" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O61" t="b" s="4">
         <v>1</v>
       </c>
@@ -4078,7 +4198,9 @@
         <v>1</v>
       </c>
       <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="N62" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O62" t="b" s="4">
         <v>1</v>
       </c>
@@ -4118,7 +4240,9 @@
         <v>1</v>
       </c>
       <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="N63" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O63" t="b" s="4">
         <v>1</v>
       </c>
@@ -4158,7 +4282,9 @@
         <v>1</v>
       </c>
       <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
+      <c r="N64" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O64" t="b" s="4">
         <v>1</v>
       </c>
@@ -4198,7 +4324,9 @@
         <v>1</v>
       </c>
       <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="N65" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O65" t="b" s="4">
         <v>1</v>
       </c>
@@ -4238,7 +4366,9 @@
         <v>1</v>
       </c>
       <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="N66" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O66" t="b" s="4">
         <v>1</v>
       </c>
@@ -4278,7 +4408,9 @@
         <v>1</v>
       </c>
       <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+      <c r="N67" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O67" t="b" s="4">
         <v>1</v>
       </c>
@@ -4318,7 +4450,9 @@
         <v>1</v>
       </c>
       <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+      <c r="N68" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O68" t="b" s="4">
         <v>1</v>
       </c>
@@ -4358,7 +4492,9 @@
         <v>1</v>
       </c>
       <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="N69" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O69" t="b" s="4">
         <v>1</v>
       </c>
@@ -4398,7 +4534,9 @@
         <v>1</v>
       </c>
       <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="N70" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O70" t="b" s="4">
         <v>1</v>
       </c>
@@ -4438,7 +4576,9 @@
         <v>1</v>
       </c>
       <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="N71" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O71" t="b" s="4">
         <v>1</v>
       </c>
@@ -4478,7 +4618,9 @@
         <v>1</v>
       </c>
       <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="N72" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O72" t="b" s="4">
         <v>1</v>
       </c>
@@ -4518,7 +4660,9 @@
         <v>1</v>
       </c>
       <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+      <c r="N73" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O73" t="b" s="4">
         <v>1</v>
       </c>
@@ -4558,7 +4702,9 @@
         <v>1</v>
       </c>
       <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+      <c r="N74" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O74" t="b" s="4">
         <v>1</v>
       </c>
@@ -4598,7 +4744,9 @@
         <v>1</v>
       </c>
       <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="N75" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O75" t="b" s="4">
         <v>1</v>
       </c>
@@ -4638,7 +4786,9 @@
         <v>1</v>
       </c>
       <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
+      <c r="N76" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O76" t="b" s="4">
         <v>1</v>
       </c>
@@ -4678,7 +4828,9 @@
         <v>1</v>
       </c>
       <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
+      <c r="N77" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O77" t="b" s="4">
         <v>1</v>
       </c>
@@ -4718,7 +4870,9 @@
         <v>1</v>
       </c>
       <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="N78" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O78" t="b" s="4">
         <v>1</v>
       </c>
@@ -4758,7 +4912,9 @@
         <v>1</v>
       </c>
       <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
+      <c r="N79" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O79" t="b" s="4">
         <v>1</v>
       </c>
@@ -4798,7 +4954,9 @@
         <v>1</v>
       </c>
       <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
+      <c r="N80" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O80" t="b" s="4">
         <v>1</v>
       </c>
@@ -4838,7 +4996,9 @@
         <v>1</v>
       </c>
       <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
+      <c r="N81" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O81" t="b" s="4">
         <v>1</v>
       </c>
@@ -4878,7 +5038,9 @@
         <v>1</v>
       </c>
       <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
+      <c r="N82" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O82" t="b" s="4">
         <v>1</v>
       </c>
@@ -4918,7 +5080,9 @@
         <v>1</v>
       </c>
       <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
+      <c r="N83" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O83" t="b" s="4">
         <v>1</v>
       </c>
@@ -4958,7 +5122,9 @@
         <v>1</v>
       </c>
       <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
+      <c r="N84" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O84" t="b" s="4">
         <v>1</v>
       </c>
@@ -4998,7 +5164,9 @@
         <v>1</v>
       </c>
       <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
+      <c r="N85" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O85" t="b" s="4">
         <v>1</v>
       </c>
@@ -5038,7 +5206,9 @@
         <v>1</v>
       </c>
       <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
+      <c r="N86" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O86" t="b" s="4">
         <v>1</v>
       </c>
@@ -5078,7 +5248,9 @@
         <v>1</v>
       </c>
       <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
+      <c r="N87" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O87" t="b" s="4">
         <v>1</v>
       </c>
@@ -5118,7 +5290,9 @@
         <v>1</v>
       </c>
       <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
+      <c r="N88" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O88" t="b" s="4">
         <v>1</v>
       </c>
@@ -5158,7 +5332,9 @@
         <v>1</v>
       </c>
       <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
+      <c r="N89" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O89" t="b" s="4">
         <v>1</v>
       </c>
@@ -5198,7 +5374,9 @@
         <v>1</v>
       </c>
       <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
+      <c r="N90" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O90" t="b" s="4">
         <v>1</v>
       </c>
@@ -5238,7 +5416,9 @@
         <v>1</v>
       </c>
       <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
+      <c r="N91" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O91" t="b" s="4">
         <v>1</v>
       </c>
@@ -5278,7 +5458,9 @@
         <v>1</v>
       </c>
       <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
+      <c r="N92" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O92" t="b" s="4">
         <v>1</v>
       </c>
@@ -5318,7 +5500,9 @@
         <v>1</v>
       </c>
       <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
+      <c r="N93" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O93" t="b" s="4">
         <v>1</v>
       </c>
@@ -5358,7 +5542,9 @@
         <v>1</v>
       </c>
       <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
+      <c r="N94" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O94" t="b" s="4">
         <v>1</v>
       </c>
@@ -5398,7 +5584,9 @@
         <v>1</v>
       </c>
       <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
+      <c r="N95" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O95" t="b" s="4">
         <v>1</v>
       </c>
@@ -5438,7 +5626,9 @@
         <v>1</v>
       </c>
       <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
+      <c r="N96" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O96" t="b" s="4">
         <v>1</v>
       </c>
@@ -5478,7 +5668,9 @@
         <v>1</v>
       </c>
       <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
+      <c r="N97" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O97" t="b" s="4">
         <v>1</v>
       </c>
@@ -5518,7 +5710,9 @@
         <v>1</v>
       </c>
       <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
+      <c r="N98" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O98" t="b" s="4">
         <v>1</v>
       </c>
@@ -5558,7 +5752,9 @@
         <v>1</v>
       </c>
       <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
+      <c r="N99" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O99" t="b" s="4">
         <v>1</v>
       </c>
@@ -5598,7 +5794,9 @@
         <v>1</v>
       </c>
       <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
+      <c r="N100" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O100" t="b" s="4">
         <v>1</v>
       </c>
@@ -5638,7 +5836,9 @@
         <v>1</v>
       </c>
       <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
+      <c r="N101" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O101" t="b" s="4">
         <v>1</v>
       </c>
@@ -5678,7 +5878,9 @@
         <v>1</v>
       </c>
       <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
+      <c r="N102" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O102" t="b" s="4">
         <v>1</v>
       </c>
@@ -5718,7 +5920,9 @@
         <v>1</v>
       </c>
       <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
+      <c r="N103" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O103" t="b" s="4">
         <v>1</v>
       </c>
@@ -5758,7 +5962,9 @@
         <v>1</v>
       </c>
       <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
+      <c r="N104" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O104" t="b" s="4">
         <v>1</v>
       </c>
@@ -5798,7 +6004,9 @@
         <v>1</v>
       </c>
       <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
+      <c r="N105" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O105" t="b" s="4">
         <v>1</v>
       </c>
@@ -5838,7 +6046,9 @@
         <v>1</v>
       </c>
       <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
+      <c r="N106" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O106" t="b" s="4">
         <v>1</v>
       </c>
@@ -5878,7 +6088,9 @@
         <v>1</v>
       </c>
       <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
+      <c r="N107" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O107" t="b" s="4">
         <v>1</v>
       </c>
@@ -5918,7 +6130,9 @@
         <v>1</v>
       </c>
       <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
+      <c r="N108" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O108" t="b" s="4">
         <v>1</v>
       </c>
@@ -5958,7 +6172,9 @@
         <v>1</v>
       </c>
       <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
+      <c r="N109" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O109" t="b" s="4">
         <v>1</v>
       </c>
@@ -5998,7 +6214,9 @@
         <v>1</v>
       </c>
       <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
+      <c r="N110" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O110" t="b" s="4">
         <v>1</v>
       </c>
@@ -6038,7 +6256,9 @@
         <v>1</v>
       </c>
       <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
+      <c r="N111" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O111" t="b" s="4">
         <v>1</v>
       </c>
@@ -6078,7 +6298,9 @@
         <v>1</v>
       </c>
       <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
+      <c r="N112" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O112" t="b" s="4">
         <v>1</v>
       </c>
@@ -6118,7 +6340,9 @@
         <v>1</v>
       </c>
       <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
+      <c r="N113" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O113" t="b" s="4">
         <v>1</v>
       </c>
@@ -6158,7 +6382,9 @@
         <v>1</v>
       </c>
       <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
+      <c r="N114" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O114" t="b" s="4">
         <v>1</v>
       </c>
@@ -6198,7 +6424,9 @@
         <v>1</v>
       </c>
       <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
+      <c r="N115" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O115" t="b" s="4">
         <v>1</v>
       </c>
@@ -6238,7 +6466,9 @@
         <v>1</v>
       </c>
       <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
+      <c r="N116" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O116" t="b" s="4">
         <v>1</v>
       </c>
@@ -6278,7 +6508,9 @@
         <v>1</v>
       </c>
       <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
+      <c r="N117" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O117" t="b" s="4">
         <v>1</v>
       </c>
@@ -6318,7 +6550,9 @@
         <v>1</v>
       </c>
       <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
+      <c r="N118" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O118" t="b" s="4">
         <v>1</v>
       </c>
@@ -6358,7 +6592,9 @@
         <v>1</v>
       </c>
       <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
+      <c r="N119" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O119" t="b" s="4">
         <v>1</v>
       </c>
@@ -6398,7 +6634,9 @@
         <v>1</v>
       </c>
       <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
+      <c r="N120" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O120" t="b" s="4">
         <v>1</v>
       </c>
@@ -6438,7 +6676,9 @@
         <v>1</v>
       </c>
       <c r="M121" s="3"/>
-      <c r="N121" s="3"/>
+      <c r="N121" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O121" t="b" s="4">
         <v>1</v>
       </c>
@@ -6478,7 +6718,9 @@
         <v>1</v>
       </c>
       <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
+      <c r="N122" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O122" t="b" s="4">
         <v>1</v>
       </c>
@@ -6518,7 +6760,9 @@
         <v>1</v>
       </c>
       <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
+      <c r="N123" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O123" t="b" s="4">
         <v>1</v>
       </c>
@@ -6558,7 +6802,9 @@
         <v>1</v>
       </c>
       <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
+      <c r="N124" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O124" t="b" s="4">
         <v>1</v>
       </c>
@@ -6598,7 +6844,9 @@
         <v>1</v>
       </c>
       <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
+      <c r="N125" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O125" t="b" s="4">
         <v>1</v>
       </c>
@@ -6638,7 +6886,9 @@
         <v>1</v>
       </c>
       <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
+      <c r="N126" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O126" t="b" s="4">
         <v>1</v>
       </c>
@@ -6678,7 +6928,9 @@
         <v>1</v>
       </c>
       <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
+      <c r="N127" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O127" t="b" s="4">
         <v>1</v>
       </c>
@@ -6718,7 +6970,9 @@
         <v>1</v>
       </c>
       <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
+      <c r="N128" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O128" t="b" s="4">
         <v>1</v>
       </c>
@@ -6758,7 +7012,9 @@
         <v>1</v>
       </c>
       <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
+      <c r="N129" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O129" t="b" s="4">
         <v>1</v>
       </c>
@@ -6798,7 +7054,9 @@
         <v>1</v>
       </c>
       <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
+      <c r="N130" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O130" t="b" s="4">
         <v>1</v>
       </c>
@@ -6838,7 +7096,9 @@
         <v>1</v>
       </c>
       <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
+      <c r="N131" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O131" t="b" s="4">
         <v>1</v>
       </c>
@@ -6878,7 +7138,9 @@
         <v>1</v>
       </c>
       <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
+      <c r="N132" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O132" t="b" s="4">
         <v>1</v>
       </c>
@@ -6918,7 +7180,9 @@
         <v>1</v>
       </c>
       <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
+      <c r="N133" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O133" t="b" s="4">
         <v>1</v>
       </c>
@@ -6958,7 +7222,9 @@
         <v>1</v>
       </c>
       <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
+      <c r="N134" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O134" t="b" s="4">
         <v>1</v>
       </c>
@@ -6998,7 +7264,9 @@
         <v>1</v>
       </c>
       <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
+      <c r="N135" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O135" t="b" s="4">
         <v>1</v>
       </c>
@@ -7038,7 +7306,9 @@
         <v>1</v>
       </c>
       <c r="M136" s="3"/>
-      <c r="N136" s="3"/>
+      <c r="N136" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O136" t="b" s="4">
         <v>1</v>
       </c>
@@ -7078,7 +7348,9 @@
         <v>1</v>
       </c>
       <c r="M137" s="3"/>
-      <c r="N137" s="3"/>
+      <c r="N137" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O137" t="b" s="4">
         <v>1</v>
       </c>
@@ -7118,7 +7390,9 @@
         <v>1</v>
       </c>
       <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
+      <c r="N138" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O138" t="b" s="4">
         <v>1</v>
       </c>
@@ -7158,7 +7432,9 @@
         <v>1</v>
       </c>
       <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
+      <c r="N139" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O139" t="b" s="4">
         <v>1</v>
       </c>
@@ -7198,7 +7474,9 @@
         <v>1</v>
       </c>
       <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
+      <c r="N140" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O140" t="b" s="4">
         <v>1</v>
       </c>
@@ -7238,7 +7516,9 @@
         <v>1</v>
       </c>
       <c r="M141" s="3"/>
-      <c r="N141" s="3"/>
+      <c r="N141" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O141" t="b" s="4">
         <v>1</v>
       </c>
@@ -7278,7 +7558,9 @@
         <v>1</v>
       </c>
       <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
+      <c r="N142" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O142" t="b" s="4">
         <v>1</v>
       </c>
@@ -7318,7 +7600,9 @@
         <v>1</v>
       </c>
       <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
+      <c r="N143" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O143" t="b" s="4">
         <v>1</v>
       </c>
@@ -7358,7 +7642,9 @@
         <v>1</v>
       </c>
       <c r="M144" s="3"/>
-      <c r="N144" s="3"/>
+      <c r="N144" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O144" t="b" s="4">
         <v>1</v>
       </c>
@@ -7398,7 +7684,9 @@
         <v>1</v>
       </c>
       <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
+      <c r="N145" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O145" t="b" s="4">
         <v>1</v>
       </c>
@@ -7438,7 +7726,9 @@
         <v>1</v>
       </c>
       <c r="M146" s="3"/>
-      <c r="N146" s="3"/>
+      <c r="N146" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O146" t="b" s="4">
         <v>1</v>
       </c>
@@ -7478,7 +7768,9 @@
         <v>1</v>
       </c>
       <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
+      <c r="N147" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O147" t="b" s="4">
         <v>1</v>
       </c>
@@ -7518,7 +7810,9 @@
         <v>1</v>
       </c>
       <c r="M148" s="3"/>
-      <c r="N148" s="3"/>
+      <c r="N148" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O148" t="b" s="4">
         <v>1</v>
       </c>
@@ -7558,7 +7852,9 @@
         <v>1</v>
       </c>
       <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
+      <c r="N149" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O149" t="b" s="4">
         <v>1</v>
       </c>
@@ -7598,7 +7894,9 @@
         <v>1</v>
       </c>
       <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
+      <c r="N150" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O150" t="b" s="4">
         <v>1</v>
       </c>
@@ -7638,7 +7936,9 @@
         <v>1</v>
       </c>
       <c r="M151" s="3"/>
-      <c r="N151" s="3"/>
+      <c r="N151" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O151" t="b" s="4">
         <v>1</v>
       </c>
@@ -7678,7 +7978,9 @@
         <v>1</v>
       </c>
       <c r="M152" s="3"/>
-      <c r="N152" s="3"/>
+      <c r="N152" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O152" t="b" s="4">
         <v>1</v>
       </c>
@@ -7718,7 +8020,9 @@
         <v>1</v>
       </c>
       <c r="M153" s="3"/>
-      <c r="N153" s="3"/>
+      <c r="N153" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O153" t="b" s="4">
         <v>1</v>
       </c>
@@ -7758,7 +8062,9 @@
         <v>1</v>
       </c>
       <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
+      <c r="N154" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O154" t="b" s="4">
         <v>1</v>
       </c>
@@ -7798,7 +8104,9 @@
         <v>1</v>
       </c>
       <c r="M155" s="3"/>
-      <c r="N155" s="3"/>
+      <c r="N155" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O155" t="b" s="4">
         <v>1</v>
       </c>
@@ -7838,7 +8146,9 @@
         <v>1</v>
       </c>
       <c r="M156" s="3"/>
-      <c r="N156" s="3"/>
+      <c r="N156" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O156" t="b" s="4">
         <v>1</v>
       </c>
@@ -7878,7 +8188,9 @@
         <v>1</v>
       </c>
       <c r="M157" s="3"/>
-      <c r="N157" s="3"/>
+      <c r="N157" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O157" t="b" s="4">
         <v>1</v>
       </c>
@@ -7918,7 +8230,9 @@
         <v>1</v>
       </c>
       <c r="M158" s="3"/>
-      <c r="N158" s="3"/>
+      <c r="N158" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O158" t="b" s="4">
         <v>1</v>
       </c>
@@ -7958,7 +8272,9 @@
         <v>1</v>
       </c>
       <c r="M159" s="3"/>
-      <c r="N159" s="3"/>
+      <c r="N159" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O159" t="b" s="4">
         <v>1</v>
       </c>
@@ -7998,7 +8314,9 @@
         <v>1</v>
       </c>
       <c r="M160" s="3"/>
-      <c r="N160" s="3"/>
+      <c r="N160" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O160" t="b" s="4">
         <v>1</v>
       </c>
@@ -8038,7 +8356,9 @@
         <v>1</v>
       </c>
       <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
+      <c r="N161" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O161" t="b" s="4">
         <v>1</v>
       </c>
@@ -8078,7 +8398,9 @@
         <v>1</v>
       </c>
       <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
+      <c r="N162" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O162" t="b" s="4">
         <v>1</v>
       </c>
@@ -8118,7 +8440,9 @@
         <v>1</v>
       </c>
       <c r="M163" s="3"/>
-      <c r="N163" s="3"/>
+      <c r="N163" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O163" t="b" s="4">
         <v>1</v>
       </c>
@@ -8158,7 +8482,9 @@
         <v>1</v>
       </c>
       <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
+      <c r="N164" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O164" t="b" s="4">
         <v>1</v>
       </c>
@@ -8198,7 +8524,9 @@
         <v>1</v>
       </c>
       <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
+      <c r="N165" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O165" t="b" s="4">
         <v>1</v>
       </c>
@@ -8238,7 +8566,9 @@
         <v>1</v>
       </c>
       <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
+      <c r="N166" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O166" t="b" s="4">
         <v>1</v>
       </c>
@@ -8278,7 +8608,9 @@
         <v>1</v>
       </c>
       <c r="M167" s="3"/>
-      <c r="N167" s="3"/>
+      <c r="N167" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O167" t="b" s="4">
         <v>1</v>
       </c>
@@ -8318,7 +8650,9 @@
         <v>1</v>
       </c>
       <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
+      <c r="N168" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O168" t="b" s="4">
         <v>1</v>
       </c>
@@ -8358,7 +8692,9 @@
         <v>1</v>
       </c>
       <c r="M169" s="3"/>
-      <c r="N169" s="3"/>
+      <c r="N169" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O169" t="b" s="4">
         <v>1</v>
       </c>
@@ -8398,7 +8734,9 @@
         <v>1</v>
       </c>
       <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
+      <c r="N170" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O170" t="b" s="4">
         <v>1</v>
       </c>
@@ -8438,7 +8776,9 @@
         <v>1</v>
       </c>
       <c r="M171" s="3"/>
-      <c r="N171" s="3"/>
+      <c r="N171" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O171" t="b" s="4">
         <v>1</v>
       </c>
@@ -8478,7 +8818,9 @@
         <v>1</v>
       </c>
       <c r="M172" s="3"/>
-      <c r="N172" s="3"/>
+      <c r="N172" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O172" t="b" s="4">
         <v>1</v>
       </c>
@@ -8518,7 +8860,9 @@
         <v>1</v>
       </c>
       <c r="M173" s="3"/>
-      <c r="N173" s="3"/>
+      <c r="N173" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O173" t="b" s="4">
         <v>1</v>
       </c>
@@ -8558,7 +8902,9 @@
         <v>1</v>
       </c>
       <c r="M174" s="3"/>
-      <c r="N174" s="3"/>
+      <c r="N174" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O174" t="b" s="4">
         <v>1</v>
       </c>
@@ -8598,7 +8944,9 @@
         <v>1</v>
       </c>
       <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
+      <c r="N175" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O175" t="b" s="4">
         <v>1</v>
       </c>
@@ -8638,7 +8986,9 @@
         <v>1</v>
       </c>
       <c r="M176" s="3"/>
-      <c r="N176" s="3"/>
+      <c r="N176" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O176" t="b" s="4">
         <v>1</v>
       </c>
@@ -8678,7 +9028,9 @@
         <v>1</v>
       </c>
       <c r="M177" s="3"/>
-      <c r="N177" s="3"/>
+      <c r="N177" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O177" t="b" s="4">
         <v>1</v>
       </c>
@@ -8718,7 +9070,9 @@
         <v>1</v>
       </c>
       <c r="M178" s="3"/>
-      <c r="N178" s="3"/>
+      <c r="N178" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O178" t="b" s="4">
         <v>1</v>
       </c>
@@ -8758,7 +9112,9 @@
         <v>1</v>
       </c>
       <c r="M179" s="3"/>
-      <c r="N179" s="3"/>
+      <c r="N179" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O179" t="b" s="4">
         <v>1</v>
       </c>
@@ -8798,7 +9154,9 @@
         <v>1</v>
       </c>
       <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
+      <c r="N180" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O180" t="b" s="4">
         <v>1</v>
       </c>
@@ -8838,7 +9196,9 @@
         <v>1</v>
       </c>
       <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
+      <c r="N181" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O181" t="b" s="4">
         <v>1</v>
       </c>
@@ -8878,7 +9238,9 @@
         <v>1</v>
       </c>
       <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
+      <c r="N182" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O182" t="b" s="4">
         <v>1</v>
       </c>
@@ -8918,7 +9280,9 @@
         <v>1</v>
       </c>
       <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
+      <c r="N183" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O183" t="b" s="4">
         <v>1</v>
       </c>
@@ -8958,7 +9322,9 @@
         <v>1</v>
       </c>
       <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
+      <c r="N184" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O184" t="b" s="4">
         <v>1</v>
       </c>
@@ -8998,7 +9364,9 @@
         <v>1</v>
       </c>
       <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
+      <c r="N185" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O185" t="b" s="4">
         <v>1</v>
       </c>
@@ -9038,7 +9406,9 @@
         <v>1</v>
       </c>
       <c r="M186" s="3"/>
-      <c r="N186" s="3"/>
+      <c r="N186" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O186" t="b" s="4">
         <v>1</v>
       </c>
@@ -9078,7 +9448,9 @@
         <v>1</v>
       </c>
       <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
+      <c r="N187" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O187" t="b" s="4">
         <v>1</v>
       </c>
@@ -9118,7 +9490,9 @@
         <v>1</v>
       </c>
       <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
+      <c r="N188" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O188" t="b" s="4">
         <v>1</v>
       </c>
@@ -9158,7 +9532,9 @@
         <v>1</v>
       </c>
       <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
+      <c r="N189" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O189" t="b" s="4">
         <v>1</v>
       </c>
@@ -9198,7 +9574,9 @@
         <v>1</v>
       </c>
       <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
+      <c r="N190" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O190" t="b" s="4">
         <v>1</v>
       </c>
@@ -9238,7 +9616,9 @@
         <v>1</v>
       </c>
       <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
+      <c r="N191" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O191" t="b" s="4">
         <v>1</v>
       </c>
@@ -9278,7 +9658,9 @@
         <v>1</v>
       </c>
       <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
+      <c r="N192" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O192" t="b" s="4">
         <v>1</v>
       </c>
@@ -9318,7 +9700,9 @@
         <v>1</v>
       </c>
       <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
+      <c r="N193" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O193" t="b" s="4">
         <v>1</v>
       </c>
@@ -9358,7 +9742,9 @@
         <v>1</v>
       </c>
       <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
+      <c r="N194" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O194" t="b" s="4">
         <v>1</v>
       </c>
@@ -9398,7 +9784,9 @@
         <v>1</v>
       </c>
       <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
+      <c r="N195" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O195" t="b" s="4">
         <v>1</v>
       </c>
@@ -9438,7 +9826,9 @@
         <v>1</v>
       </c>
       <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
+      <c r="N196" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O196" t="b" s="4">
         <v>1</v>
       </c>
@@ -9478,7 +9868,9 @@
         <v>1</v>
       </c>
       <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
+      <c r="N197" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O197" t="b" s="4">
         <v>1</v>
       </c>
@@ -9518,7 +9910,9 @@
         <v>1</v>
       </c>
       <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
+      <c r="N198" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O198" t="b" s="4">
         <v>1</v>
       </c>
@@ -9558,7 +9952,9 @@
         <v>1</v>
       </c>
       <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
+      <c r="N199" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O199" t="b" s="4">
         <v>1</v>
       </c>
@@ -9598,7 +9994,9 @@
         <v>1</v>
       </c>
       <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
+      <c r="N200" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O200" t="b" s="4">
         <v>1</v>
       </c>
@@ -9638,7 +10036,9 @@
         <v>1</v>
       </c>
       <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
+      <c r="N201" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O201" t="b" s="4">
         <v>1</v>
       </c>
@@ -9678,7 +10078,9 @@
         <v>1</v>
       </c>
       <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
+      <c r="N202" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O202" t="b" s="4">
         <v>1</v>
       </c>
@@ -9718,7 +10120,9 @@
         <v>1</v>
       </c>
       <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
+      <c r="N203" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O203" t="b" s="4">
         <v>1</v>
       </c>
@@ -9758,7 +10162,9 @@
         <v>1</v>
       </c>
       <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
+      <c r="N204" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O204" t="b" s="4">
         <v>1</v>
       </c>
@@ -9798,7 +10204,9 @@
         <v>1</v>
       </c>
       <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
+      <c r="N205" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O205" t="b" s="4">
         <v>1</v>
       </c>
@@ -9838,7 +10246,9 @@
         <v>1</v>
       </c>
       <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
+      <c r="N206" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O206" t="b" s="4">
         <v>1</v>
       </c>
@@ -9878,7 +10288,9 @@
         <v>1</v>
       </c>
       <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
+      <c r="N207" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O207" t="b" s="4">
         <v>1</v>
       </c>
@@ -9918,7 +10330,9 @@
         <v>1</v>
       </c>
       <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
+      <c r="N208" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O208" t="b" s="4">
         <v>1</v>
       </c>
@@ -9958,7 +10372,9 @@
         <v>1</v>
       </c>
       <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
+      <c r="N209" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O209" t="b" s="4">
         <v>1</v>
       </c>
@@ -9998,7 +10414,9 @@
         <v>1</v>
       </c>
       <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
+      <c r="N210" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O210" t="b" s="4">
         <v>1</v>
       </c>
@@ -10038,7 +10456,9 @@
         <v>1</v>
       </c>
       <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
+      <c r="N211" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O211" t="b" s="4">
         <v>1</v>
       </c>
@@ -10078,7 +10498,9 @@
         <v>1</v>
       </c>
       <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
+      <c r="N212" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O212" t="b" s="4">
         <v>1</v>
       </c>
@@ -10118,7 +10540,9 @@
         <v>1</v>
       </c>
       <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
+      <c r="N213" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O213" t="b" s="4">
         <v>1</v>
       </c>
@@ -10158,7 +10582,9 @@
         <v>1</v>
       </c>
       <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
+      <c r="N214" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O214" t="b" s="4">
         <v>1</v>
       </c>
@@ -10198,7 +10624,9 @@
         <v>1</v>
       </c>
       <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
+      <c r="N215" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O215" t="b" s="4">
         <v>1</v>
       </c>
@@ -10238,7 +10666,9 @@
         <v>1</v>
       </c>
       <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
+      <c r="N216" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O216" t="b" s="4">
         <v>1</v>
       </c>
@@ -10278,7 +10708,9 @@
         <v>1</v>
       </c>
       <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
+      <c r="N217" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O217" t="b" s="4">
         <v>1</v>
       </c>
@@ -10318,7 +10750,9 @@
         <v>1</v>
       </c>
       <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
+      <c r="N218" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O218" t="b" s="4">
         <v>1</v>
       </c>
@@ -10358,7 +10792,9 @@
         <v>1</v>
       </c>
       <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
+      <c r="N219" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O219" t="b" s="4">
         <v>1</v>
       </c>
@@ -10398,7 +10834,9 @@
         <v>1</v>
       </c>
       <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
+      <c r="N220" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O220" t="b" s="4">
         <v>1</v>
       </c>
@@ -10438,7 +10876,9 @@
         <v>1</v>
       </c>
       <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
+      <c r="N221" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O221" t="b" s="4">
         <v>1</v>
       </c>
@@ -10478,7 +10918,9 @@
         <v>1</v>
       </c>
       <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
+      <c r="N222" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O222" t="b" s="4">
         <v>1</v>
       </c>
@@ -10518,7 +10960,9 @@
         <v>1</v>
       </c>
       <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
+      <c r="N223" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O223" t="b" s="4">
         <v>1</v>
       </c>
@@ -10558,7 +11002,9 @@
         <v>1</v>
       </c>
       <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
+      <c r="N224" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O224" t="b" s="4">
         <v>1</v>
       </c>
@@ -10598,7 +11044,9 @@
         <v>1</v>
       </c>
       <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
+      <c r="N225" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O225" t="b" s="4">
         <v>1</v>
       </c>
@@ -10638,7 +11086,9 @@
         <v>1</v>
       </c>
       <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
+      <c r="N226" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O226" t="b" s="4">
         <v>1</v>
       </c>
@@ -10678,7 +11128,9 @@
         <v>1</v>
       </c>
       <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
+      <c r="N227" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O227" t="b" s="4">
         <v>1</v>
       </c>
@@ -10718,7 +11170,9 @@
         <v>1</v>
       </c>
       <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
+      <c r="N228" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O228" t="b" s="4">
         <v>1</v>
       </c>
@@ -10758,7 +11212,9 @@
         <v>1</v>
       </c>
       <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
+      <c r="N229" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O229" t="b" s="4">
         <v>1</v>
       </c>
@@ -10798,7 +11254,9 @@
         <v>1</v>
       </c>
       <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
+      <c r="N230" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O230" t="b" s="4">
         <v>1</v>
       </c>
@@ -10838,7 +11296,9 @@
         <v>1</v>
       </c>
       <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
+      <c r="N231" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O231" t="b" s="4">
         <v>1</v>
       </c>
@@ -10878,7 +11338,9 @@
         <v>1</v>
       </c>
       <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
+      <c r="N232" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O232" t="b" s="4">
         <v>1</v>
       </c>
@@ -10918,7 +11380,9 @@
         <v>1</v>
       </c>
       <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
+      <c r="N233" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O233" t="b" s="4">
         <v>1</v>
       </c>
@@ -10958,7 +11422,9 @@
         <v>1</v>
       </c>
       <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
+      <c r="N234" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O234" t="b" s="4">
         <v>1</v>
       </c>
@@ -10998,7 +11464,9 @@
         <v>1</v>
       </c>
       <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
+      <c r="N235" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O235" t="b" s="4">
         <v>1</v>
       </c>
@@ -11038,7 +11506,9 @@
         <v>1</v>
       </c>
       <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
+      <c r="N236" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O236" t="b" s="4">
         <v>1</v>
       </c>
@@ -11078,7 +11548,9 @@
         <v>1</v>
       </c>
       <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
+      <c r="N237" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O237" t="b" s="4">
         <v>1</v>
       </c>
@@ -11118,7 +11590,9 @@
         <v>1</v>
       </c>
       <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
+      <c r="N238" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O238" t="b" s="4">
         <v>1</v>
       </c>
@@ -11158,7 +11632,9 @@
         <v>1</v>
       </c>
       <c r="M239" s="3"/>
-      <c r="N239" s="3"/>
+      <c r="N239" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O239" t="b" s="4">
         <v>1</v>
       </c>
@@ -11198,7 +11674,9 @@
         <v>1</v>
       </c>
       <c r="M240" s="3"/>
-      <c r="N240" s="3"/>
+      <c r="N240" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O240" t="b" s="4">
         <v>1</v>
       </c>
@@ -11238,7 +11716,9 @@
         <v>1</v>
       </c>
       <c r="M241" s="3"/>
-      <c r="N241" s="3"/>
+      <c r="N241" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O241" t="b" s="4">
         <v>1</v>
       </c>
@@ -11278,7 +11758,9 @@
         <v>1</v>
       </c>
       <c r="M242" s="3"/>
-      <c r="N242" s="3"/>
+      <c r="N242" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O242" t="b" s="4">
         <v>1</v>
       </c>
@@ -11318,7 +11800,9 @@
         <v>1</v>
       </c>
       <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
+      <c r="N243" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O243" t="b" s="4">
         <v>1</v>
       </c>
@@ -11358,7 +11842,9 @@
         <v>1</v>
       </c>
       <c r="M244" s="3"/>
-      <c r="N244" s="3"/>
+      <c r="N244" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O244" t="b" s="4">
         <v>1</v>
       </c>
@@ -11398,7 +11884,9 @@
         <v>1</v>
       </c>
       <c r="M245" s="3"/>
-      <c r="N245" s="3"/>
+      <c r="N245" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O245" t="b" s="4">
         <v>1</v>
       </c>
@@ -11438,7 +11926,9 @@
         <v>1</v>
       </c>
       <c r="M246" s="3"/>
-      <c r="N246" s="3"/>
+      <c r="N246" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O246" t="b" s="4">
         <v>1</v>
       </c>
@@ -11478,7 +11968,9 @@
         <v>1</v>
       </c>
       <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
+      <c r="N247" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O247" t="b" s="4">
         <v>1</v>
       </c>
@@ -11518,7 +12010,9 @@
         <v>1</v>
       </c>
       <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
+      <c r="N248" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O248" t="b" s="4">
         <v>1</v>
       </c>
@@ -11558,7 +12052,9 @@
         <v>1</v>
       </c>
       <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
+      <c r="N249" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O249" t="b" s="4">
         <v>1</v>
       </c>
@@ -11598,7 +12094,9 @@
         <v>1</v>
       </c>
       <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
+      <c r="N250" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O250" t="b" s="4">
         <v>1</v>
       </c>
@@ -11638,7 +12136,9 @@
         <v>1</v>
       </c>
       <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
+      <c r="N251" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O251" t="b" s="4">
         <v>1</v>
       </c>
@@ -11678,7 +12178,9 @@
         <v>1</v>
       </c>
       <c r="M252" s="3"/>
-      <c r="N252" s="3"/>
+      <c r="N252" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O252" t="b" s="4">
         <v>1</v>
       </c>
@@ -11718,7 +12220,9 @@
         <v>1</v>
       </c>
       <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
+      <c r="N253" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O253" t="b" s="4">
         <v>1</v>
       </c>
@@ -11758,7 +12262,9 @@
         <v>1</v>
       </c>
       <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
+      <c r="N254" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O254" t="b" s="4">
         <v>1</v>
       </c>
@@ -11798,7 +12304,9 @@
         <v>1</v>
       </c>
       <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
+      <c r="N255" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O255" t="b" s="4">
         <v>1</v>
       </c>
@@ -11838,7 +12346,9 @@
         <v>1</v>
       </c>
       <c r="M256" s="3"/>
-      <c r="N256" s="3"/>
+      <c r="N256" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O256" t="b" s="4">
         <v>1</v>
       </c>
@@ -11878,7 +12388,9 @@
         <v>1</v>
       </c>
       <c r="M257" s="3"/>
-      <c r="N257" s="3"/>
+      <c r="N257" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O257" t="b" s="4">
         <v>1</v>
       </c>
@@ -11918,7 +12430,9 @@
         <v>1</v>
       </c>
       <c r="M258" s="3"/>
-      <c r="N258" s="3"/>
+      <c r="N258" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O258" t="b" s="4">
         <v>1</v>
       </c>
@@ -11958,7 +12472,9 @@
         <v>1</v>
       </c>
       <c r="M259" s="3"/>
-      <c r="N259" s="3"/>
+      <c r="N259" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O259" t="b" s="4">
         <v>1</v>
       </c>
@@ -11998,7 +12514,9 @@
         <v>1</v>
       </c>
       <c r="M260" s="3"/>
-      <c r="N260" s="3"/>
+      <c r="N260" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O260" t="b" s="4">
         <v>1</v>
       </c>
@@ -12038,7 +12556,9 @@
         <v>1</v>
       </c>
       <c r="M261" s="3"/>
-      <c r="N261" s="3"/>
+      <c r="N261" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O261" t="b" s="4">
         <v>1</v>
       </c>
@@ -12078,7 +12598,9 @@
         <v>1</v>
       </c>
       <c r="M262" s="3"/>
-      <c r="N262" s="3"/>
+      <c r="N262" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O262" t="b" s="4">
         <v>1</v>
       </c>
@@ -12118,7 +12640,9 @@
         <v>1</v>
       </c>
       <c r="M263" s="3"/>
-      <c r="N263" s="3"/>
+      <c r="N263" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O263" t="b" s="4">
         <v>1</v>
       </c>
@@ -12158,7 +12682,9 @@
         <v>1</v>
       </c>
       <c r="M264" s="3"/>
-      <c r="N264" s="3"/>
+      <c r="N264" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O264" t="b" s="4">
         <v>1</v>
       </c>
@@ -12198,7 +12724,9 @@
         <v>1</v>
       </c>
       <c r="M265" s="3"/>
-      <c r="N265" s="3"/>
+      <c r="N265" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O265" t="b" s="4">
         <v>1</v>
       </c>
@@ -12238,7 +12766,9 @@
         <v>1</v>
       </c>
       <c r="M266" s="3"/>
-      <c r="N266" s="3"/>
+      <c r="N266" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O266" t="b" s="4">
         <v>1</v>
       </c>
@@ -12278,7 +12808,9 @@
         <v>1</v>
       </c>
       <c r="M267" s="3"/>
-      <c r="N267" s="3"/>
+      <c r="N267" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O267" t="b" s="4">
         <v>1</v>
       </c>
@@ -12318,7 +12850,9 @@
         <v>1</v>
       </c>
       <c r="M268" s="3"/>
-      <c r="N268" s="3"/>
+      <c r="N268" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O268" t="b" s="4">
         <v>1</v>
       </c>
@@ -12358,7 +12892,9 @@
         <v>1</v>
       </c>
       <c r="M269" s="3"/>
-      <c r="N269" s="3"/>
+      <c r="N269" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O269" t="b" s="4">
         <v>1</v>
       </c>
@@ -12398,7 +12934,9 @@
         <v>1</v>
       </c>
       <c r="M270" s="3"/>
-      <c r="N270" s="3"/>
+      <c r="N270" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O270" t="b" s="4">
         <v>1</v>
       </c>
@@ -12438,7 +12976,9 @@
         <v>1</v>
       </c>
       <c r="M271" s="3"/>
-      <c r="N271" s="3"/>
+      <c r="N271" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O271" t="b" s="4">
         <v>1</v>
       </c>
@@ -12478,7 +13018,9 @@
         <v>1</v>
       </c>
       <c r="M272" s="3"/>
-      <c r="N272" s="3"/>
+      <c r="N272" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O272" t="b" s="4">
         <v>1</v>
       </c>
@@ -12518,7 +13060,9 @@
         <v>1</v>
       </c>
       <c r="M273" s="3"/>
-      <c r="N273" s="3"/>
+      <c r="N273" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O273" t="b" s="4">
         <v>1</v>
       </c>
@@ -12558,7 +13102,9 @@
         <v>1</v>
       </c>
       <c r="M274" s="3"/>
-      <c r="N274" s="3"/>
+      <c r="N274" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O274" t="b" s="4">
         <v>1</v>
       </c>
@@ -12598,7 +13144,9 @@
         <v>1</v>
       </c>
       <c r="M275" s="3"/>
-      <c r="N275" s="3"/>
+      <c r="N275" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O275" t="b" s="4">
         <v>1</v>
       </c>
@@ -12638,7 +13186,9 @@
         <v>1</v>
       </c>
       <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
+      <c r="N276" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O276" t="b" s="4">
         <v>1</v>
       </c>
@@ -12678,7 +13228,9 @@
         <v>1</v>
       </c>
       <c r="M277" s="3"/>
-      <c r="N277" s="3"/>
+      <c r="N277" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O277" t="b" s="4">
         <v>1</v>
       </c>
@@ -12718,7 +13270,9 @@
         <v>1</v>
       </c>
       <c r="M278" s="3"/>
-      <c r="N278" s="3"/>
+      <c r="N278" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O278" t="b" s="4">
         <v>1</v>
       </c>
@@ -12758,7 +13312,9 @@
         <v>1</v>
       </c>
       <c r="M279" s="3"/>
-      <c r="N279" s="3"/>
+      <c r="N279" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O279" t="b" s="4">
         <v>1</v>
       </c>
@@ -12798,7 +13354,9 @@
         <v>1</v>
       </c>
       <c r="M280" s="3"/>
-      <c r="N280" s="3"/>
+      <c r="N280" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O280" t="b" s="4">
         <v>1</v>
       </c>
@@ -12838,7 +13396,9 @@
         <v>1</v>
       </c>
       <c r="M281" s="3"/>
-      <c r="N281" s="3"/>
+      <c r="N281" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O281" t="b" s="4">
         <v>1</v>
       </c>
@@ -12878,7 +13438,9 @@
         <v>1</v>
       </c>
       <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
+      <c r="N282" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O282" t="b" s="4">
         <v>1</v>
       </c>
@@ -12918,7 +13480,9 @@
         <v>1</v>
       </c>
       <c r="M283" s="3"/>
-      <c r="N283" s="3"/>
+      <c r="N283" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O283" t="b" s="4">
         <v>1</v>
       </c>
@@ -12958,7 +13522,9 @@
         <v>1</v>
       </c>
       <c r="M284" s="3"/>
-      <c r="N284" s="3"/>
+      <c r="N284" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O284" t="b" s="4">
         <v>1</v>
       </c>
@@ -12998,7 +13564,9 @@
         <v>1</v>
       </c>
       <c r="M285" s="3"/>
-      <c r="N285" s="3"/>
+      <c r="N285" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O285" t="b" s="4">
         <v>1</v>
       </c>
@@ -13038,7 +13606,9 @@
         <v>1</v>
       </c>
       <c r="M286" s="3"/>
-      <c r="N286" s="3"/>
+      <c r="N286" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O286" t="b" s="4">
         <v>1</v>
       </c>
@@ -13078,7 +13648,9 @@
         <v>1</v>
       </c>
       <c r="M287" s="3"/>
-      <c r="N287" s="3"/>
+      <c r="N287" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O287" t="b" s="4">
         <v>1</v>
       </c>
@@ -13118,7 +13690,9 @@
         <v>1</v>
       </c>
       <c r="M288" s="3"/>
-      <c r="N288" s="3"/>
+      <c r="N288" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O288" t="b" s="4">
         <v>1</v>
       </c>
@@ -13158,7 +13732,9 @@
         <v>1</v>
       </c>
       <c r="M289" s="3"/>
-      <c r="N289" s="3"/>
+      <c r="N289" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O289" t="b" s="4">
         <v>1</v>
       </c>
@@ -13198,7 +13774,9 @@
         <v>1</v>
       </c>
       <c r="M290" s="3"/>
-      <c r="N290" s="3"/>
+      <c r="N290" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O290" t="b" s="4">
         <v>1</v>
       </c>
@@ -13238,7 +13816,9 @@
         <v>1</v>
       </c>
       <c r="M291" s="3"/>
-      <c r="N291" s="3"/>
+      <c r="N291" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O291" t="b" s="4">
         <v>1</v>
       </c>
@@ -13278,7 +13858,9 @@
         <v>1</v>
       </c>
       <c r="M292" s="3"/>
-      <c r="N292" s="3"/>
+      <c r="N292" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O292" t="b" s="4">
         <v>1</v>
       </c>
@@ -13318,7 +13900,9 @@
         <v>1</v>
       </c>
       <c r="M293" s="3"/>
-      <c r="N293" s="3"/>
+      <c r="N293" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O293" t="b" s="4">
         <v>1</v>
       </c>
@@ -13358,7 +13942,9 @@
         <v>1</v>
       </c>
       <c r="M294" s="3"/>
-      <c r="N294" s="3"/>
+      <c r="N294" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O294" t="b" s="4">
         <v>1</v>
       </c>
@@ -13398,7 +13984,9 @@
         <v>1</v>
       </c>
       <c r="M295" s="3"/>
-      <c r="N295" s="3"/>
+      <c r="N295" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O295" t="b" s="4">
         <v>1</v>
       </c>
@@ -13438,7 +14026,9 @@
         <v>1</v>
       </c>
       <c r="M296" s="3"/>
-      <c r="N296" s="3"/>
+      <c r="N296" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O296" t="b" s="4">
         <v>1</v>
       </c>
@@ -13478,7 +14068,9 @@
         <v>1</v>
       </c>
       <c r="M297" s="3"/>
-      <c r="N297" s="3"/>
+      <c r="N297" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O297" t="b" s="4">
         <v>1</v>
       </c>
@@ -13518,7 +14110,9 @@
         <v>1</v>
       </c>
       <c r="M298" s="3"/>
-      <c r="N298" s="3"/>
+      <c r="N298" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O298" t="b" s="4">
         <v>1</v>
       </c>
@@ -13558,7 +14152,9 @@
         <v>1</v>
       </c>
       <c r="M299" s="3"/>
-      <c r="N299" s="3"/>
+      <c r="N299" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O299" t="b" s="4">
         <v>1</v>
       </c>
@@ -13598,7 +14194,9 @@
         <v>1</v>
       </c>
       <c r="M300" s="3"/>
-      <c r="N300" s="3"/>
+      <c r="N300" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O300" t="b" s="4">
         <v>1</v>
       </c>
@@ -13638,7 +14236,9 @@
         <v>1</v>
       </c>
       <c r="M301" s="3"/>
-      <c r="N301" s="3"/>
+      <c r="N301" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O301" t="b" s="4">
         <v>1</v>
       </c>
@@ -13678,7 +14278,9 @@
         <v>1</v>
       </c>
       <c r="M302" s="3"/>
-      <c r="N302" s="3"/>
+      <c r="N302" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O302" t="b" s="4">
         <v>1</v>
       </c>
@@ -13718,7 +14320,9 @@
         <v>1</v>
       </c>
       <c r="M303" s="3"/>
-      <c r="N303" s="3"/>
+      <c r="N303" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O303" t="b" s="4">
         <v>1</v>
       </c>
@@ -13758,7 +14362,9 @@
         <v>1</v>
       </c>
       <c r="M304" s="3"/>
-      <c r="N304" s="3"/>
+      <c r="N304" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O304" t="b" s="4">
         <v>1</v>
       </c>
@@ -13798,7 +14404,9 @@
         <v>1</v>
       </c>
       <c r="M305" s="3"/>
-      <c r="N305" s="3"/>
+      <c r="N305" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O305" t="b" s="4">
         <v>1</v>
       </c>
@@ -13838,7 +14446,9 @@
         <v>1</v>
       </c>
       <c r="M306" s="3"/>
-      <c r="N306" s="3"/>
+      <c r="N306" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O306" t="b" s="4">
         <v>1</v>
       </c>
@@ -13878,7 +14488,9 @@
         <v>1</v>
       </c>
       <c r="M307" s="3"/>
-      <c r="N307" s="3"/>
+      <c r="N307" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O307" t="b" s="4">
         <v>1</v>
       </c>
@@ -13918,7 +14530,9 @@
         <v>1</v>
       </c>
       <c r="M308" s="3"/>
-      <c r="N308" s="3"/>
+      <c r="N308" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O308" t="b" s="4">
         <v>1</v>
       </c>
@@ -13958,7 +14572,9 @@
         <v>1</v>
       </c>
       <c r="M309" s="3"/>
-      <c r="N309" s="3"/>
+      <c r="N309" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O309" t="b" s="4">
         <v>1</v>
       </c>
@@ -13998,7 +14614,9 @@
         <v>1</v>
       </c>
       <c r="M310" s="3"/>
-      <c r="N310" s="3"/>
+      <c r="N310" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O310" t="b" s="4">
         <v>1</v>
       </c>
@@ -14038,7 +14656,9 @@
         <v>1</v>
       </c>
       <c r="M311" s="3"/>
-      <c r="N311" s="3"/>
+      <c r="N311" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O311" t="b" s="4">
         <v>1</v>
       </c>
@@ -14078,7 +14698,9 @@
         <v>1</v>
       </c>
       <c r="M312" s="3"/>
-      <c r="N312" s="3"/>
+      <c r="N312" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O312" t="b" s="4">
         <v>1</v>
       </c>
@@ -14118,7 +14740,9 @@
         <v>1</v>
       </c>
       <c r="M313" s="3"/>
-      <c r="N313" s="3"/>
+      <c r="N313" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O313" t="b" s="4">
         <v>1</v>
       </c>
@@ -14158,7 +14782,9 @@
         <v>1</v>
       </c>
       <c r="M314" s="3"/>
-      <c r="N314" s="3"/>
+      <c r="N314" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O314" t="b" s="4">
         <v>1</v>
       </c>
@@ -14198,7 +14824,9 @@
         <v>1</v>
       </c>
       <c r="M315" s="3"/>
-      <c r="N315" s="3"/>
+      <c r="N315" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O315" t="b" s="4">
         <v>1</v>
       </c>
@@ -14238,7 +14866,9 @@
         <v>1</v>
       </c>
       <c r="M316" s="3"/>
-      <c r="N316" s="3"/>
+      <c r="N316" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O316" t="b" s="4">
         <v>1</v>
       </c>
@@ -14278,7 +14908,9 @@
         <v>1</v>
       </c>
       <c r="M317" s="3"/>
-      <c r="N317" s="3"/>
+      <c r="N317" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O317" t="b" s="4">
         <v>1</v>
       </c>
@@ -14318,7 +14950,9 @@
         <v>1</v>
       </c>
       <c r="M318" s="3"/>
-      <c r="N318" s="3"/>
+      <c r="N318" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O318" t="b" s="4">
         <v>1</v>
       </c>
@@ -14358,7 +14992,9 @@
         <v>1</v>
       </c>
       <c r="M319" s="3"/>
-      <c r="N319" s="3"/>
+      <c r="N319" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O319" t="b" s="4">
         <v>1</v>
       </c>
@@ -14398,7 +15034,9 @@
         <v>1</v>
       </c>
       <c r="M320" s="3"/>
-      <c r="N320" s="3"/>
+      <c r="N320" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O320" t="b" s="4">
         <v>1</v>
       </c>
@@ -14438,7 +15076,9 @@
         <v>1</v>
       </c>
       <c r="M321" s="3"/>
-      <c r="N321" s="3"/>
+      <c r="N321" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O321" t="b" s="4">
         <v>1</v>
       </c>
@@ -14478,7 +15118,9 @@
         <v>1</v>
       </c>
       <c r="M322" s="3"/>
-      <c r="N322" s="3"/>
+      <c r="N322" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O322" t="b" s="4">
         <v>1</v>
       </c>
@@ -14518,7 +15160,9 @@
         <v>1</v>
       </c>
       <c r="M323" s="3"/>
-      <c r="N323" s="3"/>
+      <c r="N323" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O323" t="b" s="4">
         <v>1</v>
       </c>
@@ -14558,7 +15202,9 @@
         <v>1</v>
       </c>
       <c r="M324" s="3"/>
-      <c r="N324" s="3"/>
+      <c r="N324" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O324" t="b" s="4">
         <v>1</v>
       </c>
@@ -14598,7 +15244,9 @@
         <v>1</v>
       </c>
       <c r="M325" s="3"/>
-      <c r="N325" s="3"/>
+      <c r="N325" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O325" t="b" s="4">
         <v>1</v>
       </c>
@@ -14638,7 +15286,9 @@
         <v>1</v>
       </c>
       <c r="M326" s="3"/>
-      <c r="N326" s="3"/>
+      <c r="N326" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O326" t="b" s="4">
         <v>1</v>
       </c>
@@ -14678,7 +15328,9 @@
         <v>1</v>
       </c>
       <c r="M327" s="3"/>
-      <c r="N327" s="3"/>
+      <c r="N327" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O327" t="b" s="4">
         <v>1</v>
       </c>
@@ -14718,7 +15370,9 @@
         <v>1</v>
       </c>
       <c r="M328" s="3"/>
-      <c r="N328" s="3"/>
+      <c r="N328" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O328" t="b" s="4">
         <v>1</v>
       </c>
@@ -14758,7 +15412,9 @@
         <v>1</v>
       </c>
       <c r="M329" s="3"/>
-      <c r="N329" s="3"/>
+      <c r="N329" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O329" t="b" s="4">
         <v>1</v>
       </c>
@@ -14798,7 +15454,9 @@
         <v>1</v>
       </c>
       <c r="M330" s="3"/>
-      <c r="N330" s="3"/>
+      <c r="N330" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O330" t="b" s="4">
         <v>1</v>
       </c>
@@ -14838,7 +15496,9 @@
         <v>1</v>
       </c>
       <c r="M331" s="3"/>
-      <c r="N331" s="3"/>
+      <c r="N331" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O331" t="b" s="4">
         <v>1</v>
       </c>
@@ -14878,7 +15538,9 @@
         <v>1</v>
       </c>
       <c r="M332" s="3"/>
-      <c r="N332" s="3"/>
+      <c r="N332" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O332" t="b" s="4">
         <v>1</v>
       </c>
@@ -14918,7 +15580,9 @@
         <v>1</v>
       </c>
       <c r="M333" s="3"/>
-      <c r="N333" s="3"/>
+      <c r="N333" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O333" t="b" s="4">
         <v>1</v>
       </c>
@@ -14958,7 +15622,9 @@
         <v>1</v>
       </c>
       <c r="M334" s="3"/>
-      <c r="N334" s="3"/>
+      <c r="N334" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O334" t="b" s="4">
         <v>1</v>
       </c>
@@ -14998,7 +15664,9 @@
         <v>1</v>
       </c>
       <c r="M335" s="3"/>
-      <c r="N335" s="3"/>
+      <c r="N335" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O335" t="b" s="4">
         <v>1</v>
       </c>
@@ -15038,7 +15706,9 @@
         <v>1</v>
       </c>
       <c r="M336" s="3"/>
-      <c r="N336" s="3"/>
+      <c r="N336" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O336" t="b" s="4">
         <v>1</v>
       </c>
@@ -15078,7 +15748,9 @@
         <v>1</v>
       </c>
       <c r="M337" s="3"/>
-      <c r="N337" s="3"/>
+      <c r="N337" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O337" t="b" s="4">
         <v>1</v>
       </c>
@@ -15118,7 +15790,9 @@
         <v>1</v>
       </c>
       <c r="M338" s="3"/>
-      <c r="N338" s="3"/>
+      <c r="N338" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O338" t="b" s="4">
         <v>1</v>
       </c>
@@ -15158,7 +15832,9 @@
         <v>1</v>
       </c>
       <c r="M339" s="3"/>
-      <c r="N339" s="3"/>
+      <c r="N339" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O339" t="b" s="4">
         <v>1</v>
       </c>
@@ -15198,7 +15874,9 @@
         <v>1</v>
       </c>
       <c r="M340" s="3"/>
-      <c r="N340" s="3"/>
+      <c r="N340" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O340" t="b" s="4">
         <v>1</v>
       </c>
@@ -15238,7 +15916,9 @@
         <v>1</v>
       </c>
       <c r="M341" s="3"/>
-      <c r="N341" s="3"/>
+      <c r="N341" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O341" t="b" s="4">
         <v>1</v>
       </c>
@@ -15278,7 +15958,9 @@
         <v>1</v>
       </c>
       <c r="M342" s="3"/>
-      <c r="N342" s="3"/>
+      <c r="N342" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O342" t="b" s="4">
         <v>1</v>
       </c>
@@ -15318,7 +16000,9 @@
         <v>1</v>
       </c>
       <c r="M343" s="3"/>
-      <c r="N343" s="3"/>
+      <c r="N343" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O343" t="b" s="4">
         <v>1</v>
       </c>
@@ -15358,7 +16042,9 @@
         <v>1</v>
       </c>
       <c r="M344" s="3"/>
-      <c r="N344" s="3"/>
+      <c r="N344" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O344" t="b" s="4">
         <v>1</v>
       </c>
@@ -15398,7 +16084,9 @@
         <v>1</v>
       </c>
       <c r="M345" s="3"/>
-      <c r="N345" s="3"/>
+      <c r="N345" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O345" t="b" s="4">
         <v>1</v>
       </c>
@@ -15438,7 +16126,9 @@
         <v>1</v>
       </c>
       <c r="M346" s="3"/>
-      <c r="N346" s="3"/>
+      <c r="N346" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O346" t="b" s="4">
         <v>1</v>
       </c>
@@ -15478,7 +16168,9 @@
         <v>1</v>
       </c>
       <c r="M347" s="3"/>
-      <c r="N347" s="3"/>
+      <c r="N347" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O347" t="b" s="4">
         <v>1</v>
       </c>
@@ -15518,7 +16210,9 @@
         <v>1</v>
       </c>
       <c r="M348" s="3"/>
-      <c r="N348" s="3"/>
+      <c r="N348" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O348" t="b" s="4">
         <v>1</v>
       </c>
@@ -15558,7 +16252,9 @@
         <v>1</v>
       </c>
       <c r="M349" s="3"/>
-      <c r="N349" s="3"/>
+      <c r="N349" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O349" t="b" s="4">
         <v>1</v>
       </c>
@@ -15598,7 +16294,9 @@
         <v>1</v>
       </c>
       <c r="M350" s="3"/>
-      <c r="N350" s="3"/>
+      <c r="N350" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O350" t="b" s="4">
         <v>1</v>
       </c>
@@ -15638,7 +16336,9 @@
         <v>1</v>
       </c>
       <c r="M351" s="3"/>
-      <c r="N351" s="3"/>
+      <c r="N351" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O351" t="b" s="4">
         <v>1</v>
       </c>
@@ -15678,7 +16378,9 @@
         <v>1</v>
       </c>
       <c r="M352" s="3"/>
-      <c r="N352" s="3"/>
+      <c r="N352" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O352" t="b" s="4">
         <v>1</v>
       </c>
@@ -15718,7 +16420,9 @@
         <v>1</v>
       </c>
       <c r="M353" s="3"/>
-      <c r="N353" s="3"/>
+      <c r="N353" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O353" t="b" s="4">
         <v>1</v>
       </c>
@@ -15758,7 +16462,9 @@
         <v>1</v>
       </c>
       <c r="M354" s="3"/>
-      <c r="N354" s="3"/>
+      <c r="N354" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O354" t="b" s="4">
         <v>1</v>
       </c>
@@ -15798,7 +16504,9 @@
         <v>1</v>
       </c>
       <c r="M355" s="3"/>
-      <c r="N355" s="3"/>
+      <c r="N355" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O355" t="b" s="4">
         <v>1</v>
       </c>
@@ -15838,7 +16546,9 @@
         <v>1</v>
       </c>
       <c r="M356" s="3"/>
-      <c r="N356" s="3"/>
+      <c r="N356" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O356" t="b" s="4">
         <v>1</v>
       </c>
@@ -15878,7 +16588,9 @@
         <v>1</v>
       </c>
       <c r="M357" s="3"/>
-      <c r="N357" s="3"/>
+      <c r="N357" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O357" t="b" s="4">
         <v>1</v>
       </c>
@@ -15918,7 +16630,9 @@
         <v>1</v>
       </c>
       <c r="M358" s="3"/>
-      <c r="N358" s="3"/>
+      <c r="N358" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O358" t="b" s="4">
         <v>1</v>
       </c>
@@ -15958,7 +16672,9 @@
         <v>1</v>
       </c>
       <c r="M359" s="3"/>
-      <c r="N359" s="3"/>
+      <c r="N359" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O359" t="b" s="4">
         <v>1</v>
       </c>
@@ -15998,7 +16714,9 @@
         <v>1</v>
       </c>
       <c r="M360" s="3"/>
-      <c r="N360" s="3"/>
+      <c r="N360" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O360" t="b" s="4">
         <v>1</v>
       </c>
@@ -16038,7 +16756,9 @@
         <v>1</v>
       </c>
       <c r="M361" s="3"/>
-      <c r="N361" s="3"/>
+      <c r="N361" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O361" t="b" s="4">
         <v>1</v>
       </c>
@@ -16078,7 +16798,9 @@
         <v>1</v>
       </c>
       <c r="M362" s="3"/>
-      <c r="N362" s="3"/>
+      <c r="N362" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O362" t="b" s="4">
         <v>1</v>
       </c>
@@ -16118,7 +16840,9 @@
         <v>1</v>
       </c>
       <c r="M363" s="3"/>
-      <c r="N363" s="3"/>
+      <c r="N363" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O363" t="b" s="4">
         <v>1</v>
       </c>
@@ -16158,7 +16882,9 @@
         <v>1</v>
       </c>
       <c r="M364" s="3"/>
-      <c r="N364" s="3"/>
+      <c r="N364" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O364" t="b" s="4">
         <v>1</v>
       </c>
@@ -16198,7 +16924,9 @@
         <v>1</v>
       </c>
       <c r="M365" s="3"/>
-      <c r="N365" s="3"/>
+      <c r="N365" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O365" t="b" s="4">
         <v>1</v>
       </c>
@@ -16238,7 +16966,9 @@
         <v>1</v>
       </c>
       <c r="M366" s="3"/>
-      <c r="N366" s="3"/>
+      <c r="N366" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O366" t="b" s="4">
         <v>1</v>
       </c>
@@ -16278,7 +17008,9 @@
         <v>1</v>
       </c>
       <c r="M367" s="3"/>
-      <c r="N367" s="3"/>
+      <c r="N367" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O367" t="b" s="4">
         <v>1</v>
       </c>
@@ -16318,7 +17050,9 @@
         <v>1</v>
       </c>
       <c r="M368" s="3"/>
-      <c r="N368" s="3"/>
+      <c r="N368" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O368" t="b" s="4">
         <v>1</v>
       </c>
@@ -16358,7 +17092,9 @@
         <v>1</v>
       </c>
       <c r="M369" s="3"/>
-      <c r="N369" s="3"/>
+      <c r="N369" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O369" t="b" s="4">
         <v>1</v>
       </c>
@@ -16398,7 +17134,9 @@
         <v>1</v>
       </c>
       <c r="M370" s="3"/>
-      <c r="N370" s="3"/>
+      <c r="N370" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O370" t="b" s="4">
         <v>1</v>
       </c>
@@ -16438,7 +17176,9 @@
         <v>1</v>
       </c>
       <c r="M371" s="3"/>
-      <c r="N371" s="3"/>
+      <c r="N371" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O371" t="b" s="4">
         <v>1</v>
       </c>
@@ -16478,7 +17218,9 @@
         <v>1</v>
       </c>
       <c r="M372" s="3"/>
-      <c r="N372" s="3"/>
+      <c r="N372" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O372" t="b" s="4">
         <v>1</v>
       </c>
@@ -16518,7 +17260,9 @@
         <v>1</v>
       </c>
       <c r="M373" s="3"/>
-      <c r="N373" s="3"/>
+      <c r="N373" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O373" t="b" s="4">
         <v>1</v>
       </c>
@@ -16558,7 +17302,9 @@
         <v>1</v>
       </c>
       <c r="M374" s="3"/>
-      <c r="N374" s="3"/>
+      <c r="N374" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O374" t="b" s="4">
         <v>1</v>
       </c>
@@ -16598,7 +17344,9 @@
         <v>1</v>
       </c>
       <c r="M375" s="3"/>
-      <c r="N375" s="3"/>
+      <c r="N375" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O375" t="b" s="4">
         <v>1</v>
       </c>
@@ -16638,7 +17386,9 @@
         <v>1</v>
       </c>
       <c r="M376" s="3"/>
-      <c r="N376" s="3"/>
+      <c r="N376" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O376" t="b" s="4">
         <v>1</v>
       </c>
@@ -16678,7 +17428,9 @@
         <v>1</v>
       </c>
       <c r="M377" s="3"/>
-      <c r="N377" s="3"/>
+      <c r="N377" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O377" t="b" s="4">
         <v>1</v>
       </c>
@@ -16718,7 +17470,9 @@
         <v>1</v>
       </c>
       <c r="M378" s="3"/>
-      <c r="N378" s="3"/>
+      <c r="N378" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O378" t="b" s="4">
         <v>1</v>
       </c>
@@ -16758,7 +17512,9 @@
         <v>1</v>
       </c>
       <c r="M379" s="3"/>
-      <c r="N379" s="3"/>
+      <c r="N379" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O379" t="b" s="4">
         <v>1</v>
       </c>
@@ -16798,7 +17554,9 @@
         <v>1</v>
       </c>
       <c r="M380" s="3"/>
-      <c r="N380" s="3"/>
+      <c r="N380" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O380" t="b" s="4">
         <v>1</v>
       </c>
@@ -16838,7 +17596,9 @@
         <v>1</v>
       </c>
       <c r="M381" s="3"/>
-      <c r="N381" s="3"/>
+      <c r="N381" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O381" t="b" s="4">
         <v>1</v>
       </c>
@@ -16878,7 +17638,9 @@
         <v>1</v>
       </c>
       <c r="M382" s="3"/>
-      <c r="N382" s="3"/>
+      <c r="N382" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O382" t="b" s="4">
         <v>1</v>
       </c>
@@ -16918,7 +17680,9 @@
         <v>1</v>
       </c>
       <c r="M383" s="3"/>
-      <c r="N383" s="3"/>
+      <c r="N383" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O383" t="b" s="4">
         <v>1</v>
       </c>
@@ -16958,7 +17722,9 @@
         <v>1</v>
       </c>
       <c r="M384" s="3"/>
-      <c r="N384" s="3"/>
+      <c r="N384" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O384" t="b" s="4">
         <v>1</v>
       </c>
@@ -16998,7 +17764,9 @@
         <v>1</v>
       </c>
       <c r="M385" s="3"/>
-      <c r="N385" s="3"/>
+      <c r="N385" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O385" t="b" s="4">
         <v>1</v>
       </c>
@@ -17038,7 +17806,9 @@
         <v>1</v>
       </c>
       <c r="M386" s="3"/>
-      <c r="N386" s="3"/>
+      <c r="N386" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O386" t="b" s="4">
         <v>1</v>
       </c>
@@ -17078,7 +17848,9 @@
         <v>1</v>
       </c>
       <c r="M387" s="3"/>
-      <c r="N387" s="3"/>
+      <c r="N387" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O387" t="b" s="4">
         <v>1</v>
       </c>
@@ -17118,7 +17890,9 @@
         <v>1</v>
       </c>
       <c r="M388" s="3"/>
-      <c r="N388" s="3"/>
+      <c r="N388" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O388" t="b" s="4">
         <v>1</v>
       </c>
@@ -17158,7 +17932,9 @@
         <v>1</v>
       </c>
       <c r="M389" s="3"/>
-      <c r="N389" s="3"/>
+      <c r="N389" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O389" t="b" s="4">
         <v>1</v>
       </c>
@@ -17198,7 +17974,9 @@
         <v>1</v>
       </c>
       <c r="M390" s="3"/>
-      <c r="N390" s="3"/>
+      <c r="N390" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O390" t="b" s="4">
         <v>1</v>
       </c>
@@ -17238,7 +18016,9 @@
         <v>1</v>
       </c>
       <c r="M391" s="3"/>
-      <c r="N391" s="3"/>
+      <c r="N391" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O391" t="b" s="4">
         <v>1</v>
       </c>
@@ -17278,7 +18058,9 @@
         <v>1</v>
       </c>
       <c r="M392" s="3"/>
-      <c r="N392" s="3"/>
+      <c r="N392" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O392" t="b" s="4">
         <v>1</v>
       </c>
@@ -17318,7 +18100,9 @@
         <v>1</v>
       </c>
       <c r="M393" s="3"/>
-      <c r="N393" s="3"/>
+      <c r="N393" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O393" t="b" s="4">
         <v>1</v>
       </c>
@@ -17358,7 +18142,9 @@
         <v>1</v>
       </c>
       <c r="M394" s="3"/>
-      <c r="N394" s="3"/>
+      <c r="N394" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O394" t="b" s="4">
         <v>1</v>
       </c>
@@ -17398,7 +18184,9 @@
         <v>1</v>
       </c>
       <c r="M395" s="3"/>
-      <c r="N395" s="3"/>
+      <c r="N395" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O395" t="b" s="4">
         <v>1</v>
       </c>
@@ -17438,7 +18226,9 @@
         <v>1</v>
       </c>
       <c r="M396" s="3"/>
-      <c r="N396" s="3"/>
+      <c r="N396" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O396" t="b" s="4">
         <v>1</v>
       </c>
@@ -17478,7 +18268,9 @@
         <v>1</v>
       </c>
       <c r="M397" s="3"/>
-      <c r="N397" s="3"/>
+      <c r="N397" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O397" t="b" s="4">
         <v>1</v>
       </c>
@@ -17518,7 +18310,9 @@
         <v>1</v>
       </c>
       <c r="M398" s="3"/>
-      <c r="N398" s="3"/>
+      <c r="N398" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O398" t="b" s="4">
         <v>1</v>
       </c>
@@ -17558,7 +18352,9 @@
         <v>1</v>
       </c>
       <c r="M399" s="3"/>
-      <c r="N399" s="3"/>
+      <c r="N399" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O399" t="b" s="4">
         <v>1</v>
       </c>
@@ -17598,7 +18394,9 @@
         <v>1</v>
       </c>
       <c r="M400" s="3"/>
-      <c r="N400" s="3"/>
+      <c r="N400" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O400" t="b" s="4">
         <v>1</v>
       </c>
@@ -17638,7 +18436,9 @@
         <v>1</v>
       </c>
       <c r="M401" s="3"/>
-      <c r="N401" s="3"/>
+      <c r="N401" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O401" t="b" s="4">
         <v>1</v>
       </c>
@@ -17678,7 +18478,9 @@
         <v>1</v>
       </c>
       <c r="M402" s="3"/>
-      <c r="N402" s="3"/>
+      <c r="N402" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O402" t="b" s="4">
         <v>1</v>
       </c>
@@ -17718,7 +18520,9 @@
         <v>1</v>
       </c>
       <c r="M403" s="3"/>
-      <c r="N403" s="3"/>
+      <c r="N403" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O403" t="b" s="4">
         <v>1</v>
       </c>
@@ -17758,7 +18562,9 @@
         <v>1</v>
       </c>
       <c r="M404" s="3"/>
-      <c r="N404" s="3"/>
+      <c r="N404" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O404" t="b" s="4">
         <v>1</v>
       </c>
@@ -17798,7 +18604,9 @@
         <v>1</v>
       </c>
       <c r="M405" s="3"/>
-      <c r="N405" s="3"/>
+      <c r="N405" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O405" t="b" s="4">
         <v>1</v>
       </c>
@@ -17838,7 +18646,9 @@
         <v>1</v>
       </c>
       <c r="M406" s="3"/>
-      <c r="N406" s="3"/>
+      <c r="N406" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O406" t="b" s="4">
         <v>1</v>
       </c>
@@ -17878,7 +18688,9 @@
         <v>1</v>
       </c>
       <c r="M407" s="3"/>
-      <c r="N407" s="3"/>
+      <c r="N407" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O407" t="b" s="4">
         <v>1</v>
       </c>
@@ -17918,7 +18730,9 @@
         <v>1</v>
       </c>
       <c r="M408" s="3"/>
-      <c r="N408" s="3"/>
+      <c r="N408" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O408" t="b" s="4">
         <v>1</v>
       </c>
@@ -17958,7 +18772,9 @@
         <v>1</v>
       </c>
       <c r="M409" s="3"/>
-      <c r="N409" s="3"/>
+      <c r="N409" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O409" t="b" s="4">
         <v>1</v>
       </c>
@@ -17998,7 +18814,9 @@
         <v>1</v>
       </c>
       <c r="M410" s="3"/>
-      <c r="N410" s="3"/>
+      <c r="N410" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O410" t="b" s="4">
         <v>1</v>
       </c>
@@ -18038,7 +18856,9 @@
         <v>1</v>
       </c>
       <c r="M411" s="3"/>
-      <c r="N411" s="3"/>
+      <c r="N411" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O411" t="b" s="4">
         <v>1</v>
       </c>
@@ -18078,7 +18898,9 @@
         <v>1</v>
       </c>
       <c r="M412" s="3"/>
-      <c r="N412" s="3"/>
+      <c r="N412" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O412" t="b" s="4">
         <v>1</v>
       </c>
@@ -18118,7 +18940,9 @@
         <v>1</v>
       </c>
       <c r="M413" s="3"/>
-      <c r="N413" s="3"/>
+      <c r="N413" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O413" t="b" s="4">
         <v>1</v>
       </c>
@@ -18158,7 +18982,9 @@
         <v>1</v>
       </c>
       <c r="M414" s="3"/>
-      <c r="N414" s="3"/>
+      <c r="N414" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O414" t="b" s="4">
         <v>1</v>
       </c>
@@ -18198,7 +19024,9 @@
         <v>1</v>
       </c>
       <c r="M415" s="3"/>
-      <c r="N415" s="3"/>
+      <c r="N415" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O415" t="b" s="4">
         <v>1</v>
       </c>
@@ -18238,7 +19066,9 @@
         <v>1</v>
       </c>
       <c r="M416" s="3"/>
-      <c r="N416" s="3"/>
+      <c r="N416" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O416" t="b" s="4">
         <v>1</v>
       </c>
@@ -18278,7 +19108,9 @@
         <v>1</v>
       </c>
       <c r="M417" s="3"/>
-      <c r="N417" s="3"/>
+      <c r="N417" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O417" t="b" s="4">
         <v>1</v>
       </c>
@@ -18318,7 +19150,9 @@
         <v>1</v>
       </c>
       <c r="M418" s="3"/>
-      <c r="N418" s="3"/>
+      <c r="N418" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O418" t="b" s="4">
         <v>1</v>
       </c>
@@ -18358,7 +19192,9 @@
         <v>1</v>
       </c>
       <c r="M419" s="3"/>
-      <c r="N419" s="3"/>
+      <c r="N419" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O419" t="b" s="4">
         <v>1</v>
       </c>
@@ -18398,7 +19234,9 @@
         <v>1</v>
       </c>
       <c r="M420" s="3"/>
-      <c r="N420" s="3"/>
+      <c r="N420" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O420" t="b" s="4">
         <v>1</v>
       </c>
@@ -18438,7 +19276,9 @@
         <v>1</v>
       </c>
       <c r="M421" s="3"/>
-      <c r="N421" s="3"/>
+      <c r="N421" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O421" t="b" s="4">
         <v>1</v>
       </c>
@@ -18478,7 +19318,9 @@
         <v>1</v>
       </c>
       <c r="M422" s="3"/>
-      <c r="N422" s="3"/>
+      <c r="N422" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O422" t="b" s="4">
         <v>1</v>
       </c>
@@ -18518,7 +19360,9 @@
         <v>1</v>
       </c>
       <c r="M423" s="3"/>
-      <c r="N423" s="3"/>
+      <c r="N423" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O423" t="b" s="4">
         <v>1</v>
       </c>
@@ -18558,7 +19402,9 @@
         <v>1</v>
       </c>
       <c r="M424" s="3"/>
-      <c r="N424" s="3"/>
+      <c r="N424" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O424" t="b" s="4">
         <v>1</v>
       </c>
@@ -18598,7 +19444,9 @@
         <v>1</v>
       </c>
       <c r="M425" s="3"/>
-      <c r="N425" s="3"/>
+      <c r="N425" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O425" t="b" s="4">
         <v>1</v>
       </c>
@@ -18638,7 +19486,9 @@
         <v>1</v>
       </c>
       <c r="M426" s="3"/>
-      <c r="N426" s="3"/>
+      <c r="N426" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O426" t="b" s="4">
         <v>1</v>
       </c>
@@ -18678,7 +19528,9 @@
         <v>1</v>
       </c>
       <c r="M427" s="3"/>
-      <c r="N427" s="3"/>
+      <c r="N427" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O427" t="b" s="4">
         <v>1</v>
       </c>
@@ -18718,7 +19570,9 @@
         <v>1</v>
       </c>
       <c r="M428" s="3"/>
-      <c r="N428" s="3"/>
+      <c r="N428" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O428" t="b" s="4">
         <v>1</v>
       </c>
@@ -18758,7 +19612,9 @@
         <v>1</v>
       </c>
       <c r="M429" s="3"/>
-      <c r="N429" s="3"/>
+      <c r="N429" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O429" t="b" s="4">
         <v>1</v>
       </c>
@@ -18798,7 +19654,9 @@
         <v>1</v>
       </c>
       <c r="M430" s="3"/>
-      <c r="N430" s="3"/>
+      <c r="N430" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O430" t="b" s="4">
         <v>1</v>
       </c>
@@ -18838,7 +19696,9 @@
         <v>1</v>
       </c>
       <c r="M431" s="3"/>
-      <c r="N431" s="3"/>
+      <c r="N431" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O431" t="b" s="4">
         <v>1</v>
       </c>
@@ -18878,7 +19738,9 @@
         <v>1</v>
       </c>
       <c r="M432" s="3"/>
-      <c r="N432" s="3"/>
+      <c r="N432" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O432" t="b" s="4">
         <v>1</v>
       </c>
@@ -18918,7 +19780,9 @@
         <v>1</v>
       </c>
       <c r="M433" s="3"/>
-      <c r="N433" s="3"/>
+      <c r="N433" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O433" t="b" s="4">
         <v>1</v>
       </c>
@@ -18958,7 +19822,9 @@
         <v>1</v>
       </c>
       <c r="M434" s="3"/>
-      <c r="N434" s="3"/>
+      <c r="N434" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O434" t="b" s="4">
         <v>1</v>
       </c>
@@ -18998,7 +19864,9 @@
         <v>1</v>
       </c>
       <c r="M435" s="3"/>
-      <c r="N435" s="3"/>
+      <c r="N435" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O435" t="b" s="4">
         <v>1</v>
       </c>
@@ -19038,7 +19906,9 @@
         <v>1</v>
       </c>
       <c r="M436" s="3"/>
-      <c r="N436" s="3"/>
+      <c r="N436" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O436" t="b" s="4">
         <v>1</v>
       </c>
@@ -19078,7 +19948,9 @@
         <v>1</v>
       </c>
       <c r="M437" s="3"/>
-      <c r="N437" s="3"/>
+      <c r="N437" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O437" t="b" s="4">
         <v>1</v>
       </c>
@@ -19118,7 +19990,9 @@
         <v>1</v>
       </c>
       <c r="M438" s="3"/>
-      <c r="N438" s="3"/>
+      <c r="N438" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O438" t="b" s="4">
         <v>1</v>
       </c>
@@ -19158,7 +20032,9 @@
         <v>1</v>
       </c>
       <c r="M439" s="3"/>
-      <c r="N439" s="3"/>
+      <c r="N439" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O439" t="b" s="4">
         <v>1</v>
       </c>
@@ -19198,7 +20074,9 @@
         <v>1</v>
       </c>
       <c r="M440" s="3"/>
-      <c r="N440" s="3"/>
+      <c r="N440" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O440" t="b" s="4">
         <v>1</v>
       </c>
@@ -19238,7 +20116,9 @@
         <v>1</v>
       </c>
       <c r="M441" s="3"/>
-      <c r="N441" s="3"/>
+      <c r="N441" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O441" t="b" s="4">
         <v>1</v>
       </c>
@@ -19278,7 +20158,9 @@
         <v>1</v>
       </c>
       <c r="M442" s="3"/>
-      <c r="N442" s="3"/>
+      <c r="N442" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O442" t="b" s="4">
         <v>1</v>
       </c>
@@ -19318,7 +20200,9 @@
         <v>1</v>
       </c>
       <c r="M443" s="3"/>
-      <c r="N443" s="3"/>
+      <c r="N443" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O443" t="b" s="4">
         <v>1</v>
       </c>
@@ -19358,7 +20242,9 @@
         <v>1</v>
       </c>
       <c r="M444" s="3"/>
-      <c r="N444" s="3"/>
+      <c r="N444" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O444" t="b" s="4">
         <v>1</v>
       </c>
@@ -19398,7 +20284,9 @@
         <v>1</v>
       </c>
       <c r="M445" s="3"/>
-      <c r="N445" s="3"/>
+      <c r="N445" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O445" t="b" s="4">
         <v>1</v>
       </c>
@@ -19438,7 +20326,9 @@
         <v>1</v>
       </c>
       <c r="M446" s="3"/>
-      <c r="N446" s="3"/>
+      <c r="N446" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O446" t="b" s="4">
         <v>1</v>
       </c>
@@ -19478,7 +20368,9 @@
         <v>1</v>
       </c>
       <c r="M447" s="3"/>
-      <c r="N447" s="3"/>
+      <c r="N447" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O447" t="b" s="4">
         <v>1</v>
       </c>
@@ -19518,7 +20410,9 @@
         <v>1</v>
       </c>
       <c r="M448" s="3"/>
-      <c r="N448" s="3"/>
+      <c r="N448" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O448" t="b" s="4">
         <v>1</v>
       </c>
@@ -19558,7 +20452,9 @@
         <v>1</v>
       </c>
       <c r="M449" s="3"/>
-      <c r="N449" s="3"/>
+      <c r="N449" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O449" t="b" s="4">
         <v>1</v>
       </c>
@@ -19598,7 +20494,9 @@
         <v>1</v>
       </c>
       <c r="M450" s="3"/>
-      <c r="N450" s="3"/>
+      <c r="N450" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O450" t="b" s="4">
         <v>1</v>
       </c>
@@ -19638,7 +20536,9 @@
         <v>1</v>
       </c>
       <c r="M451" s="3"/>
-      <c r="N451" s="3"/>
+      <c r="N451" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O451" t="b" s="4">
         <v>1</v>
       </c>
@@ -19678,7 +20578,9 @@
         <v>1</v>
       </c>
       <c r="M452" s="3"/>
-      <c r="N452" s="3"/>
+      <c r="N452" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O452" t="b" s="4">
         <v>1</v>
       </c>
@@ -19718,7 +20620,9 @@
         <v>1</v>
       </c>
       <c r="M453" s="3"/>
-      <c r="N453" s="3"/>
+      <c r="N453" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O453" t="b" s="4">
         <v>1</v>
       </c>
@@ -19758,7 +20662,9 @@
         <v>1</v>
       </c>
       <c r="M454" s="3"/>
-      <c r="N454" s="3"/>
+      <c r="N454" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O454" t="b" s="4">
         <v>1</v>
       </c>
@@ -19798,7 +20704,9 @@
         <v>1</v>
       </c>
       <c r="M455" s="3"/>
-      <c r="N455" s="3"/>
+      <c r="N455" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O455" t="b" s="4">
         <v>1</v>
       </c>
@@ -19838,7 +20746,9 @@
         <v>1</v>
       </c>
       <c r="M456" s="3"/>
-      <c r="N456" s="3"/>
+      <c r="N456" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O456" t="b" s="4">
         <v>1</v>
       </c>
@@ -19878,7 +20788,9 @@
         <v>1</v>
       </c>
       <c r="M457" s="3"/>
-      <c r="N457" s="3"/>
+      <c r="N457" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O457" t="b" s="4">
         <v>1</v>
       </c>
@@ -19918,7 +20830,9 @@
         <v>1</v>
       </c>
       <c r="M458" s="3"/>
-      <c r="N458" s="3"/>
+      <c r="N458" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O458" t="b" s="4">
         <v>1</v>
       </c>
@@ -19958,7 +20872,9 @@
         <v>1</v>
       </c>
       <c r="M459" s="3"/>
-      <c r="N459" s="3"/>
+      <c r="N459" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O459" t="b" s="4">
         <v>1</v>
       </c>
@@ -19998,7 +20914,9 @@
         <v>1</v>
       </c>
       <c r="M460" s="3"/>
-      <c r="N460" s="3"/>
+      <c r="N460" t="b" s="4">
+        <v>1</v>
+      </c>
       <c r="O460" t="b" s="4">
         <v>1</v>
       </c>
